--- a/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
+++ b/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burundi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C91BD20-DDCA-4FAC-B509-F15FBBB8A05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258502F5-AE81-4E9A-8CC1-A39C65F5E956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -231,12 +231,6 @@
     <t>regex(.,'^[0-9]{2}$') and . &gt; 9 and . &lt; 1000</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO Stop TDM - 1. Formulaire Site V2</t>
-  </si>
-  <si>
-    <t>bj_oncho_stop_1_202306_site_v2</t>
-  </si>
-  <si>
     <t>Entrer le nom du village</t>
   </si>
   <si>
@@ -379,6 +373,12 @@
   </si>
   <si>
     <t>KIVOMA</t>
+  </si>
+  <si>
+    <t>bi_oncho_prestop_1_202307_site</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO pre Stop - 1. Formulaire Site</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
@@ -1009,7 +1009,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
@@ -1144,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD338"/>
     </sheetView>
@@ -1253,10 +1253,10 @@
         <v>44</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1267,10 +1267,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1281,10 +1281,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1295,10 +1295,10 @@
         <v>44</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1309,10 +1309,10 @@
         <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1323,10 +1323,10 @@
         <v>44</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1345,13 +1345,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1361,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1377,13 +1377,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1393,13 +1393,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1409,13 +1409,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1425,13 +1425,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1441,13 +1441,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1457,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1473,13 +1473,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1489,13 +1489,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1513,14 +1513,14 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -1529,14 +1529,14 @@
         <v>48</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1545,14 +1545,14 @@
         <v>48</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -1561,14 +1561,14 @@
         <v>48</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1577,14 +1577,14 @@
         <v>48</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -1593,14 +1593,14 @@
         <v>48</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -1609,14 +1609,14 @@
         <v>48</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -1625,14 +1625,14 @@
         <v>48</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -1641,14 +1641,14 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -1657,14 +1657,14 @@
         <v>48</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -1673,14 +1673,14 @@
         <v>48</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F37" s="3"/>
     </row>
@@ -1689,14 +1689,14 @@
         <v>48</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F38" s="3"/>
     </row>
@@ -1705,14 +1705,14 @@
         <v>48</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -1721,14 +1721,14 @@
         <v>48</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -1737,14 +1737,14 @@
         <v>48</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>20201130</v>
@@ -1835,40 +1835,40 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="J1" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1876,37 +1876,37 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1914,37 +1914,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1952,37 +1952,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1990,37 +1990,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2028,37 +2028,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2066,37 +2066,37 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="s">
         <v>82</v>
       </c>
-      <c r="L7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" t="s">
-        <v>84</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2104,34 +2104,34 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2139,34 +2139,34 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
         <v>75</v>
       </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="M9" t="s">
-        <v>77</v>
-      </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2174,34 +2174,34 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2209,34 +2209,34 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
         <v>75</v>
       </c>
-      <c r="C11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>77</v>
-      </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2244,28 +2244,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2273,28 +2273,28 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2302,28 +2302,28 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
         <v>104</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>82</v>
-      </c>
-      <c r="P14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2331,28 +2331,28 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2360,28 +2360,28 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
+++ b/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burundi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258502F5-AE81-4E9A-8CC1-A39C65F5E956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B24F6-924D-4670-81DB-534AD86E5032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="123">
   <si>
     <t>form_title</t>
   </si>
@@ -48,9 +48,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>hint::French</t>
   </si>
   <si>
-    <t>Entrer l'identifiant de l'enregistreur</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -231,18 +225,6 @@
     <t>regex(.,'^[0-9]{2}$') and . &gt; 9 and . &lt; 1000</t>
   </si>
   <si>
-    <t>Entrer le nom du village</t>
-  </si>
-  <si>
-    <t>Sélectionner un arrondissement</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIDC </t>
-  </si>
-  <si>
     <t>Provinces</t>
   </si>
   <si>
@@ -258,24 +240,12 @@
     <t xml:space="preserve">Collines  de 1ère lignes </t>
   </si>
   <si>
-    <t>RUMONGE-BURURI</t>
-  </si>
-  <si>
-    <t>CIBITOKE-BUBANZA</t>
-  </si>
-  <si>
-    <t>RUTANA –MAKAMBA</t>
-  </si>
-  <si>
     <t>RUMONGE</t>
   </si>
   <si>
     <t>BURURI</t>
   </si>
   <si>
-    <t>RUOMNGE</t>
-  </si>
-  <si>
     <t>CIBITOKE</t>
   </si>
   <si>
@@ -375,17 +345,77 @@
     <t>KIVOMA</t>
   </si>
   <si>
-    <t>bi_oncho_prestop_1_202307_site</t>
-  </si>
-  <si>
-    <t>(2023 Juillet) ONCHO pre Stop - 1. Formulaire Site</t>
+    <t>(2023 Juillet) ONCHO pre Stop - 1. Formulaire Site V2</t>
+  </si>
+  <si>
+    <t>bi_oncho_prestop_1_202307_site_v2</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>c_date</t>
+  </si>
+  <si>
+    <t>Date de l'enquête</t>
+  </si>
+  <si>
+    <t>c_chef_equipe</t>
+  </si>
+  <si>
+    <t>Nom et Prénom du chef d'quipe</t>
+  </si>
+  <si>
+    <t>c_commune</t>
+  </si>
+  <si>
+    <t>c_centre_sante</t>
+  </si>
+  <si>
+    <t>select_one commune</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>GITANGA (GIHOFI)</t>
+  </si>
+  <si>
+    <t>GITANGA (RUTANA)</t>
+  </si>
+  <si>
+    <t>centre_sante</t>
+  </si>
+  <si>
+    <t>select_one centre_sante</t>
+  </si>
+  <si>
+    <t>Sélectionner un centre de santé</t>
+  </si>
+  <si>
+    <t>${c_commune} = commune</t>
+  </si>
+  <si>
+    <t>${c_centre_sante} = centre_sante</t>
+  </si>
+  <si>
+    <t>Sélectionner une province</t>
+  </si>
+  <si>
+    <t>Sélectionner un district</t>
+  </si>
+  <si>
+    <t>Entrer le nom du village/Colline</t>
+  </si>
+  <si>
+    <t>Code enquêteur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,15 +476,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,13 +490,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -496,12 +514,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -562,11 +590,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -864,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -891,248 +920,354 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>36</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D2" s="12"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
+      <c r="F3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="13"/>
-      <c r="L4" s="14" t="s">
-        <v>47</v>
-      </c>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="L6" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1142,11 +1277,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD338"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1155,598 +1290,954 @@
     <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>80</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
+      <c r="A39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
+      <c r="A40" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="11" t="s">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C66" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,20 +2247,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1777,30 +2267,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2">
-        <v>20201130</v>
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1811,587 +2295,662 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072D28AC-4196-459D-92D6-2BADF0E64A3E}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="S2" sqref="S2:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="J3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="Q4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="22" t="s">
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
-      </c>
-      <c r="P3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
         <v>88</v>
       </c>
-      <c r="F7" t="s">
+      <c r="T7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" t="s">
-        <v>82</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>113</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
         <v>99</v>
       </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="T11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
         <v>75</v>
-      </c>
-      <c r="O9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>74</v>
       </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
       <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="S12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="P12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="M13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" t="s">
+        <v>93</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
         <v>75</v>
       </c>
-      <c r="P13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
+        <v>78</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>87</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="O16" t="s">
-        <v>81</v>
-      </c>
-      <c r="P16" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="S16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:P18">
-    <sortCondition ref="O2:O18"/>
-    <sortCondition ref="P2:P18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T24">
+    <sortCondition ref="T2:T24"/>
   </sortState>
-  <conditionalFormatting sqref="P2:P16">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="O12:O14">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
+++ b/ONCHO/Impact Assessments/Burundi/bi_oncho_prestop_1_202307_site.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burundi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B24F6-924D-4670-81DB-534AD86E5032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650060C4-649D-49AF-8646-E74FA0C5637C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="124">
   <si>
     <t>form_title</t>
   </si>
@@ -339,18 +339,9 @@
     <t>BUTAVUKA</t>
   </si>
   <si>
-    <t>MURAMA –RUNGWE</t>
-  </si>
-  <si>
     <t>KIVOMA</t>
   </si>
   <si>
-    <t>(2023 Juillet) ONCHO pre Stop - 1. Formulaire Site V2</t>
-  </si>
-  <si>
-    <t>bi_oncho_prestop_1_202307_site_v2</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -409,6 +400,18 @@
   </si>
   <si>
     <t>Code enquêteur</t>
+  </si>
+  <si>
+    <t>RUGAZI</t>
+  </si>
+  <si>
+    <t>MURAMA RUGWE</t>
+  </si>
+  <si>
+    <t>(2023 Juillet) ONCHO pre Stop - 1. Formulaire Site V3</t>
+  </si>
+  <si>
+    <t>bi_oncho_prestop_1_202307_site_v3</t>
   </si>
 </sst>
 </file>
@@ -958,13 +961,13 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
@@ -986,7 +989,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>34</v>
@@ -1011,10 +1014,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="13"/>
@@ -1036,7 +1039,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -1058,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
@@ -1076,10 +1079,10 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>44</v>
@@ -1100,13 +1103,13 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="15"/>
@@ -1119,7 +1122,7 @@
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1130,7 +1133,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -1143,7 +1146,7 @@
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1280,8 +1283,8 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1313,10 @@
         <v>18</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1619,7 +1622,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>69</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>80</v>
@@ -1651,7 +1654,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>67</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>76</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>81</v>
@@ -1699,13 +1702,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -1715,13 +1718,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -1731,55 +1734,55 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>66</v>
@@ -1795,7 +1798,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>70</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>77</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>80</v>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>84</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
@@ -1900,12 +1903,12 @@
         <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
@@ -1919,7 +1922,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>94</v>
@@ -1942,12 +1945,12 @@
         <v>94</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
         <v>88</v>
@@ -1975,7 +1978,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>85</v>
@@ -1989,7 +1992,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>92</v>
@@ -1998,12 +2001,12 @@
         <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
         <v>93</v>
@@ -2017,7 +2020,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
         <v>87</v>
@@ -2076,10 +2079,10 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
         <v>92</v>
@@ -2132,10 +2135,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="G61" t="s">
         <v>80</v>
@@ -2250,7 +2253,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2275,10 +2278,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
@@ -2297,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072D28AC-4196-459D-92D6-2BADF0E64A3E}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S16"/>
     </sheetView>
   </sheetViews>
@@ -2311,8 +2314,8 @@
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
@@ -2540,7 +2543,7 @@
         <v>92</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2575,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="Q6" t="s">
         <v>90</v>
@@ -2613,7 +2616,7 @@
         <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P7" t="s">
         <v>79</v>
@@ -2654,7 +2657,7 @@
         <v>70</v>
       </c>
       <c r="N8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
         <v>77</v>
@@ -2692,13 +2695,13 @@
         <v>70</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Q9" t="s">
         <v>94</v>
@@ -2707,7 +2710,7 @@
         <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2733,10 +2736,10 @@
         <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s">
         <v>81</v>
@@ -2759,7 +2762,7 @@
         <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
         <v>90</v>
@@ -2768,10 +2771,10 @@
         <v>98</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -2800,7 +2803,7 @@
         <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s">
         <v>66</v>
@@ -2844,7 +2847,7 @@
         <v>70</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q13" t="s">
         <v>92</v>
@@ -2864,13 +2867,13 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
         <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M14" t="s">
         <v>71</v>
@@ -2928,7 +2931,7 @@
         <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" t="s">
         <v>94</v>
@@ -2944,8 +2947,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T24">
-    <sortCondition ref="T2:T24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T16">
+    <sortCondition ref="T2:T16"/>
   </sortState>
   <conditionalFormatting sqref="O12:O14">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
